--- a/Master NIEM Document/Mapping_Spreadsheets/09 External Standards.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/09 External Standards.xlsx
@@ -5,15 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - CrashDriverReport Com" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Crash Driver Report" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
-  <si>
-    <t>CrashDriverReport Complete</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+  <si>
+    <t>Crash Driver Report</t>
   </si>
   <si>
     <t>Class</t>
@@ -82,9 +82,6 @@
     <t>A human being.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
@@ -103,7 +100,7 @@
     <t>A date a person was born.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate</t>
+    <t>nc:Person/nc:PersonBirthDate</t>
   </si>
   <si>
     <t>nc:DateRepresentation</t>
@@ -112,7 +109,7 @@
     <t>A data concept for a representation of a date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
   </si>
   <si>
     <t>nc:Date</t>
@@ -124,7 +121,7 @@
     <t>A full date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
   </si>
   <si>
     <t>nc:PersonName</t>
@@ -136,7 +133,7 @@
     <t>A combination of names and/or titles by which a person is known.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName</t>
+    <t>nc:Person/nc:PersonName</t>
   </si>
   <si>
     <t>First Name</t>
@@ -154,7 +151,7 @@
     <t>A first name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonGivenName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonGivenName</t>
   </si>
   <si>
     <t>Middle Name</t>
@@ -175,7 +172,7 @@
     <t>0..many</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonMiddleName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonMiddleName</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -190,7 +187,7 @@
     <t>A last name or family name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonSurName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonSurName</t>
   </si>
   <si>
     <t>Crash</t>
@@ -208,19 +205,16 @@
     <t>A traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash</t>
-  </si>
-  <si>
     <t>nc:ActivityDate</t>
   </si>
   <si>
     <t>A date of an activity.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate/[nc:DateRepresentation]</t>
+    <t>j:Crash/nc:ActivityDate</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:ActivityDate/[nc:DateRepresentation]</t>
   </si>
   <si>
     <t>Crash Date</t>
@@ -229,7 +223,7 @@
     <t>The date a crash occurred.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate/[nc:DateRepresentation]/nc:Date</t>
+    <t>j:Crash/nc:ActivityDate/[nc:DateRepresentation]/nc:Date</t>
   </si>
   <si>
     <t>j:CrashVehicle</t>
@@ -241,7 +235,7 @@
     <t>A motor vehicle involved in a traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle</t>
+    <t>j:Crash/j:CrashVehicle</t>
   </si>
   <si>
     <t>Driver</t>
@@ -259,16 +253,19 @@
     <t>A motor vehicle driver involved into a traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver</t>
   </si>
   <si>
     <t>nc:RoleOfPerson</t>
   </si>
   <si>
+    <t>reference</t>
+  </si>
+  <si>
     <t>A person of whom the role object is a function.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/nc:RoleOfPerson</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/nc:RoleOfPerson</t>
   </si>
   <si>
     <t>j:DriverLicense</t>
@@ -280,7 +277,7 @@
     <t>A license issued to a person granting driving privileges.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense</t>
   </si>
   <si>
     <t>j:DriverLicenseCardIdentification</t>
@@ -292,7 +289,7 @@
     <t>An identification that is affixed to the raw materials (card stock, laminate, etc.) used in producing driver licenses and ID cards. The numbers are issued by the material's manufacturer and provide a unique reference to a card within a jurisdiction.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification</t>
   </si>
   <si>
     <t>Driver License Number</t>
@@ -310,7 +307,7 @@
     <t>An identifier.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
   </si>
   <si>
     <t>j:DriverLicenseAugmentationPoint</t>
@@ -319,7 +316,7 @@
     <t>An augmentation point for DriverLicenseType.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]</t>
   </si>
   <si>
     <t>ext:LicenseAugmentation</t>
@@ -331,324 +328,318 @@
     <t>structures:AugmentationType</t>
   </si>
   <si>
+    <t>A definition for a LicenseAugmentation.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation</t>
+  </si>
+  <si>
+    <t>nc:ContactInformation</t>
+  </si>
+  <si>
+    <t>nc:ContactInformationType</t>
+  </si>
+  <si>
+    <t>A set of details about how to contact a person or an organization.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation</t>
+  </si>
+  <si>
+    <t>nc:ContactMeansAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a means of contacting someone.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>An email address.</t>
+  </si>
+  <si>
+    <t>nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>An electronic mailing address by which a person or organization may be contacted.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]/nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>Injured Person</t>
+  </si>
+  <si>
+    <t>A person injured in a crash.</t>
+  </si>
+  <si>
+    <t>j:CrashPerson</t>
+  </si>
+  <si>
+    <t>j:CrashPersonType</t>
+  </si>
+  <si>
+    <t>A person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
+  </si>
+  <si>
+    <t>j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>nc:InjuryType</t>
+  </si>
+  <si>
+    <t>An injury received by a person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>Injury Description</t>
+  </si>
+  <si>
+    <t>A description of an injury.</t>
+  </si>
+  <si>
+    <t>nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:TextType</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:InjurySeverityAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a severity of an injury received by a person involved into a Traffic Accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]</t>
+  </si>
+  <si>
+    <t>Severity Code</t>
+  </si>
+  <si>
+    <t>A code for how severe an injury was.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>aamva_d20:AccidentSeverityCodeType</t>
+  </si>
+  <si>
+    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]/j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>Through Window</t>
+  </si>
+  <si>
+    <t>Whether a person was flung through a window by a crash.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Injury Privacy Code</t>
+  </si>
+  <si>
+    <t>A code for whether and how the information about an injury was private.</t>
+  </si>
+  <si>
+    <t>nc:Location</t>
+  </si>
+  <si>
+    <t>nc:LocationType</t>
+  </si>
+  <si>
+    <t>A geospatial location.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location</t>
+  </si>
+  <si>
+    <t>nc:LocationGeospatialCoordinateAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a geospatial location.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]</t>
+  </si>
+  <si>
+    <t>geo:LocationGeospatialPoint</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/[geo:LocationGeospatialPoint]</t>
+  </si>
+  <si>
+    <t>gml:Point</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/[gml:Point]</t>
+  </si>
+  <si>
+    <t>Crash Location Coordinates</t>
+  </si>
+  <si>
+    <t>Latitude and longitude of a location.</t>
+  </si>
+  <si>
+    <t>gml:pos</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/gml:Point/[gml:pos]</t>
+  </si>
+  <si>
+    <t>nc:Location2DGeospatialCoordinate</t>
+  </si>
+  <si>
+    <t>nc:Location2DGeospatialCoordinateType</t>
+  </si>
+  <si>
+    <t>A location identified by a latitude and longitude.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate</t>
+  </si>
+  <si>
+    <t>nc:GeographicCoordinateLatitude</t>
+  </si>
+  <si>
+    <t>nc:LatitudeCoordinateType</t>
+  </si>
+  <si>
+    <t>A measurement of the angular distance between a point on the Earth and the Equator.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude</t>
+  </si>
+  <si>
+    <t>nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LatitudeDegreeType</t>
+  </si>
+  <si>
+    <t>A value that specifies the degree of a latitude. The value comes from a restricted range between -90 (inclusive) and +90 (inclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LatitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>nc:AngularMinuteType</t>
+  </si>
+  <si>
+    <t>A latitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>nc:GeographicCoordinateLongitude</t>
+  </si>
+  <si>
+    <t>nc:LongitudeCoordinateType</t>
+  </si>
+  <si>
+    <t>A measurement of the angular distance between a point on the Earth and the Prime Meridian.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude</t>
+  </si>
+  <si>
+    <t>nc:LongitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LongitudeDegreeType</t>
+  </si>
+  <si>
+    <t>A value that specifies the degree of a longitude. The value comes from a restricted range between -180 (inclusive) and +180 (inclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LongitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>A longitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociationType</t>
+  </si>
+  <si>
+    <t>An association between a person and a charge issued to that person.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/nc:Person</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>A committed offense.</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>j:Charge</t>
+  </si>
+  <si>
+    <t>j:ChargeType</t>
+  </si>
+  <si>
+    <t>A formal allegation that a specific person has committed a specific offense.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/j:Charge</t>
+  </si>
+  <si>
+    <t>j:JuvenileAsAdultIndicator</t>
+  </si>
+  <si>
+    <t>niem-xs:boolean</t>
+  </si>
+  <si>
+    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
+  </si>
+  <si>
     <t>element</t>
   </si>
   <si>
-    <t>A definition for a LicenseAugmentation.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation</t>
-  </si>
-  <si>
-    <t>nc:ContactInformation</t>
-  </si>
-  <si>
-    <t>nc:ContactInformationType</t>
-  </si>
-  <si>
-    <t>A set of details about how to contact a person or an organization.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation</t>
-  </si>
-  <si>
-    <t>nc:ContactMeansAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a means of contacting someone.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>An email address.</t>
-  </si>
-  <si>
-    <t>nc:ContactEmailID</t>
-  </si>
-  <si>
-    <t>An electronic mailing address by which a person or organization may be contacted.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]/nc:ContactEmailID</t>
-  </si>
-  <si>
-    <t>Injured Person</t>
-  </si>
-  <si>
-    <t>A person injured in a crash.</t>
-  </si>
-  <si>
-    <t>j:CrashPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonType</t>
-  </si>
-  <si>
-    <t>A person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>nc:InjuryType</t>
-  </si>
-  <si>
-    <t>An injury received by a person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>Injury Description</t>
-  </si>
-  <si>
-    <t>A description of an injury.</t>
-  </si>
-  <si>
-    <t>nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:TextType</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:InjuryCategoryAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a kind of bodily harm or injury.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjuryCategoryAbstract]</t>
-  </si>
-  <si>
-    <t>Severity Code</t>
-  </si>
-  <si>
-    <t>A code for how severe an injury was.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>aamva_d20:AccidentSeverityCodeType</t>
-  </si>
-  <si>
-    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjuryCategoryAbstract]/j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>Through Window</t>
-  </si>
-  <si>
-    <t>Whether a person was flung through a window by a crash.</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Injury Privacy Code</t>
-  </si>
-  <si>
-    <t>A code for whether and how the information about an injury was private.</t>
-  </si>
-  <si>
-    <t>nc:Location</t>
-  </si>
-  <si>
-    <t>nc:LocationType</t>
-  </si>
-  <si>
-    <t>A geospatial location.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location</t>
-  </si>
-  <si>
-    <t>nc:LocationGeospatialCoordinateAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a geospatial location.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]</t>
-  </si>
-  <si>
-    <t>geo:LocationGeospatialPoint</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/[geo:LocationGeospatialPoint]</t>
-  </si>
-  <si>
-    <t>gml:Point</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/[gml:Point]</t>
-  </si>
-  <si>
-    <t>Crash Location Coordinates</t>
-  </si>
-  <si>
-    <t>Latitude and longitude of a location.</t>
-  </si>
-  <si>
-    <t>gml:pos</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/gml:Point/[gml:pos]</t>
-  </si>
-  <si>
-    <t>nc:Location2DGeospatialCoordinate</t>
-  </si>
-  <si>
-    <t>nc:Location2DGeospatialCoordinateType</t>
-  </si>
-  <si>
-    <t>A location identified by a latitude and longitude.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate</t>
-  </si>
-  <si>
-    <t>nc:GeographicCoordinateLatitude</t>
-  </si>
-  <si>
-    <t>nc:LatitudeCoordinateType</t>
-  </si>
-  <si>
-    <t>A measurement of the angular distance between a point on the Earth and the Equator.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude</t>
-  </si>
-  <si>
-    <t>nc:LatitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LatitudeDegreeType</t>
-  </si>
-  <si>
-    <t>A value that specifies the degree of a latitude. The value comes from a restricted range between -90 (inclusive) and +90 (inclusive).</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LatitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>nc:AngularMinuteType</t>
-  </si>
-  <si>
-    <t>A latitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>nc:GeographicCoordinateLongitude</t>
-  </si>
-  <si>
-    <t>nc:LongitudeCoordinateType</t>
-  </si>
-  <si>
-    <t>A measurement of the angular distance between a point on the Earth and the Prime Meridian.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude</t>
-  </si>
-  <si>
-    <t>nc:LongitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LongitudeDegreeType</t>
-  </si>
-  <si>
-    <t>A value that specifies the degree of a longitude. The value comes from a restricted range between -180 (inclusive) and +180 (inclusive).</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LongitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>A longitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociationType</t>
-  </si>
-  <si>
-    <t>An association between a person and a charge issued to that person.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/nc:Person</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>A committed offense.</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>j:Charge</t>
-  </si>
-  <si>
-    <t>j:ChargeType</t>
-  </si>
-  <si>
-    <t>A formal allegation that a specific person has committed a specific offense.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:Charge</t>
-  </si>
-  <si>
-    <t>j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>niem-xs:boolean</t>
-  </si>
-  <si>
-    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Charge</t>
-  </si>
-  <si>
     <t>Charge Description</t>
   </si>
   <si>
@@ -661,7 +652,7 @@
     <t>A plain language description of a charge.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Charge/j:ChargeDescriptionText</t>
+    <t>j:Charge/j:ChargeDescriptionText</t>
   </si>
   <si>
     <t>Is Felony</t>
@@ -676,7 +667,7 @@
     <t>True if a charge refers to a felony offense; false otherwise.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Charge/j:ChargeFelonyIndicator</t>
+    <t>j:Charge/j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>j:Metadata</t>
@@ -688,9 +679,6 @@
     <t>Information that further qualifies the kind of data represented.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Metadata</t>
-  </si>
-  <si>
     <t>Is Criminal Information</t>
   </si>
   <si>
@@ -703,7 +691,7 @@
     <t>True if the information specified is classified as criminal information; false if it is not classified as criminal information.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Metadata/j:CriminalInformationIndicator</t>
+    <t>j:Metadata/j:CriminalInformationIndicator</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2409,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" t="s" s="25">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -2429,22 +2417,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="D5" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="E5" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="21">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="21">
+      <c r="G5" t="s" s="22">
         <v>27</v>
-      </c>
-      <c r="G5" t="s" s="22">
-        <v>28</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" t="s" s="22">
@@ -2453,7 +2441,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" t="s" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s" s="22">
         <v>19</v>
@@ -2461,7 +2449,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" t="s" s="25">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2471,17 +2459,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" t="s" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" t="s" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s" s="22">
         <v>19</v>
@@ -2489,7 +2477,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" t="s" s="25">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2499,25 +2487,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="28"/>
       <c r="F7" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="22">
         <v>34</v>
-      </c>
-      <c r="G7" t="s" s="22">
-        <v>35</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" t="s" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" t="s" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" t="s" s="25">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2527,10 +2515,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s" s="22">
         <v>38</v>
-      </c>
-      <c r="G8" t="s" s="22">
-        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2539,7 +2527,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2547,7 +2535,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2555,31 +2543,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="18">
+      <c r="D9" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s" s="21">
+      <c r="G9" t="s" s="22">
         <v>44</v>
-      </c>
-      <c r="G9" t="s" s="22">
-        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2587,7 +2575,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2595,39 +2583,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="18">
         <v>48</v>
       </c>
-      <c r="C10" t="s" s="18">
+      <c r="D10" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="20">
         <v>49</v>
       </c>
-      <c r="D10" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="20">
+      <c r="F10" t="s" s="21">
         <v>50</v>
       </c>
-      <c r="F10" t="s" s="21">
-        <v>51</v>
-      </c>
       <c r="G10" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s" s="22">
         <v>52</v>
-      </c>
-      <c r="M10" t="s" s="22">
-        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2635,31 +2623,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="18">
         <v>55</v>
       </c>
-      <c r="C11" t="s" s="18">
+      <c r="D11" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="21">
         <v>56</v>
       </c>
-      <c r="D11" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>57</v>
-      </c>
       <c r="G11" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2667,16 +2655,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2685,17 +2673,17 @@
         <v>19</v>
       </c>
       <c r="F12" t="s" s="21">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s" s="22">
         <v>62</v>
-      </c>
-      <c r="G12" t="s" s="22">
-        <v>63</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s" s="24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s" s="22">
         <v>19</v>
@@ -2703,7 +2691,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" t="s" s="25">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2713,19 +2701,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="28"/>
       <c r="F13" t="s" s="21">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" t="s" s="24">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s" s="22">
         <v>19</v>
@@ -2733,7 +2721,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" t="s" s="25">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2743,17 +2731,17 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" t="s" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="22">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" t="s" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s" s="22">
         <v>19</v>
@@ -2761,45 +2749,45 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" t="s" s="25">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="18">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s" s="22">
         <v>34</v>
-      </c>
-      <c r="G15" t="s" s="22">
-        <v>35</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" t="s" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" t="s" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" t="s" s="25">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -2809,19 +2797,19 @@
       <c r="D16" s="17"/>
       <c r="E16" s="28"/>
       <c r="F16" t="s" s="21">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s" s="22">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" t="s" s="22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" t="s" s="24">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s" s="22">
         <v>19</v>
@@ -2829,16 +2817,16 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" t="s" s="25">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" t="s" s="18">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s" s="19">
         <v>1</v>
@@ -2847,19 +2835,19 @@
         <v>19</v>
       </c>
       <c r="F17" t="s" s="21">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="22">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" t="s" s="22">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" t="s" s="24">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s" s="22">
         <v>19</v>
@@ -2867,7 +2855,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" t="s" s="25">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -2877,19 +2865,21 @@
       <c r="D18" s="17"/>
       <c r="E18" s="28"/>
       <c r="F18" t="s" s="21">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="22">
         <v>21</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" t="s" s="22">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="K18" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L18" t="s" s="24">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s" s="22">
         <v>19</v>
@@ -2897,7 +2887,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" t="s" s="25">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -2907,19 +2897,19 @@
       <c r="D19" s="17"/>
       <c r="E19" s="28"/>
       <c r="F19" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="22">
         <v>86</v>
-      </c>
-      <c r="G19" t="s" s="22">
-        <v>87</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" t="s" s="22">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" t="s" s="24">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s" s="22">
         <v>19</v>
@@ -2927,7 +2917,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" t="s" s="25">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" ht="44.05" customHeight="1">
@@ -2937,19 +2927,19 @@
       <c r="D20" s="17"/>
       <c r="E20" s="28"/>
       <c r="F20" t="s" s="21">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s" s="22">
         <v>90</v>
-      </c>
-      <c r="G20" t="s" s="22">
-        <v>91</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" t="s" s="22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" t="s" s="24">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" t="s" s="22">
         <v>19</v>
@@ -2957,39 +2947,39 @@
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" t="s" s="25">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="16">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s" s="18">
         <v>94</v>
       </c>
-      <c r="C21" t="s" s="18">
+      <c r="D21" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s" s="21">
         <v>95</v>
       </c>
-      <c r="D21" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s" s="21">
+      <c r="G21" t="s" s="22">
         <v>96</v>
-      </c>
-      <c r="G21" t="s" s="22">
-        <v>97</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" t="s" s="22">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" t="s" s="24">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s" s="22">
         <v>19</v>
@@ -2997,7 +2987,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" t="s" s="25">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -3007,17 +2997,17 @@
       <c r="D22" s="17"/>
       <c r="E22" s="28"/>
       <c r="F22" t="s" s="21">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" t="s" s="22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" t="s" s="24">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s" s="22">
         <v>19</v>
@@ -3025,7 +3015,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" t="s" s="25">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -3035,29 +3025,27 @@
       <c r="D23" s="17"/>
       <c r="E23" s="28"/>
       <c r="F23" t="s" s="21">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s" s="22">
         <v>103</v>
       </c>
-      <c r="G23" t="s" s="22">
+      <c r="H23" t="s" s="22">
         <v>104</v>
-      </c>
-      <c r="H23" t="s" s="22">
-        <v>105</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" t="s" s="22">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s" s="22">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K23" s="23"/>
       <c r="L23" t="s" s="24">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" t="s" s="25">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -3067,19 +3055,19 @@
       <c r="D24" s="17"/>
       <c r="E24" s="28"/>
       <c r="F24" t="s" s="21">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s" s="22">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" t="s" s="22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" t="s" s="24">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s" s="22">
         <v>19</v>
@@ -3087,7 +3075,7 @@
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" t="s" s="25">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -3097,17 +3085,17 @@
       <c r="D25" s="17"/>
       <c r="E25" s="28"/>
       <c r="F25" t="s" s="21">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" t="s" s="22">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" t="s" s="24">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s" s="22">
         <v>19</v>
@@ -3115,83 +3103,83 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" t="s" s="25">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="16">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s" s="18">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s" s="21">
         <v>116</v>
       </c>
-      <c r="C26" t="s" s="18">
-        <v>117</v>
-      </c>
-      <c r="D26" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s" s="21">
-        <v>118</v>
-      </c>
       <c r="G26" t="s" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" t="s" s="22">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" t="s" s="24">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
       <c r="P26" t="s" s="25">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" t="s" s="18">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E27" t="s" s="20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="21">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s" s="22">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" t="s" s="22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" t="s" s="24">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M27" t="s" s="22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" t="s" s="25">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -3201,19 +3189,21 @@
       <c r="D28" s="17"/>
       <c r="E28" s="28"/>
       <c r="F28" t="s" s="21">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="22">
         <v>21</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" t="s" s="22">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="K28" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L28" t="s" s="24">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="22">
         <v>19</v>
@@ -3221,7 +3211,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" t="s" s="25">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -3231,19 +3221,19 @@
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
       <c r="F29" t="s" s="21">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s" s="22">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" t="s" s="22">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" t="s" s="24">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M29" t="s" s="22">
         <v>19</v>
@@ -3251,39 +3241,39 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" t="s" s="25">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="19">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s" s="18">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s" s="21">
         <v>132</v>
       </c>
-      <c r="C30" t="s" s="18">
+      <c r="G30" t="s" s="22">
         <v>133</v>
-      </c>
-      <c r="D30" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s" s="21">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s" s="22">
-        <v>135</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" t="s" s="22">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" t="s" s="24">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M30" t="s" s="22">
         <v>19</v>
@@ -3291,7 +3281,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" t="s" s="25">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -3301,17 +3291,17 @@
       <c r="D31" s="17"/>
       <c r="E31" s="28"/>
       <c r="F31" t="s" s="21">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" t="s" s="22">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" t="s" s="24">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="22">
         <v>19</v>
@@ -3319,59 +3309,59 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" t="s" s="25">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s" s="19">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s" s="18">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s" s="19">
         <v>140</v>
       </c>
-      <c r="C32" t="s" s="18">
+      <c r="E32" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s" s="21">
         <v>141</v>
       </c>
-      <c r="D32" t="s" s="19">
+      <c r="G32" t="s" s="22">
         <v>142</v>
-      </c>
-      <c r="E32" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s" s="21">
-        <v>143</v>
-      </c>
-      <c r="G32" t="s" s="22">
-        <v>144</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" t="s" s="22">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" t="s" s="24">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" t="s" s="25">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" ht="32.05" customHeight="1">
       <c r="A33" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s" s="19">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s" s="18">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s" s="19">
         <v>147</v>
-      </c>
-      <c r="C33" t="s" s="18">
-        <v>148</v>
-      </c>
-      <c r="D33" t="s" s="19">
-        <v>149</v>
       </c>
       <c r="E33" t="s" s="20">
         <v>19</v>
@@ -3390,16 +3380,16 @@
     </row>
     <row r="34" ht="32.05" customHeight="1">
       <c r="A34" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s" s="19">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s" s="18">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s" s="19">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s" s="20">
         <v>19</v>
@@ -3423,19 +3413,19 @@
       <c r="D35" s="17"/>
       <c r="E35" s="28"/>
       <c r="F35" t="s" s="32">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s" s="33">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="34"/>
       <c r="I35" t="s" s="33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
       <c r="L35" t="s" s="35">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M35" t="s" s="33">
         <v>19</v>
@@ -3443,7 +3433,7 @@
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
       <c r="P35" t="s" s="36">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -3453,17 +3443,17 @@
       <c r="D36" s="17"/>
       <c r="E36" s="28"/>
       <c r="F36" t="s" s="32">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" t="s" s="33">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
       <c r="L36" t="s" s="35">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M36" t="s" s="33">
         <v>19</v>
@@ -3471,7 +3461,7 @@
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
       <c r="P36" t="s" s="36">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -3481,23 +3471,23 @@
       <c r="D37" s="17"/>
       <c r="E37" s="28"/>
       <c r="F37" t="s" s="32">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
       <c r="J37" t="s" s="33">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="33">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L37" s="37"/>
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
       <c r="O37" s="34"/>
       <c r="P37" t="s" s="36">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -3507,16 +3497,16 @@
       <c r="D38" s="17"/>
       <c r="E38" s="28"/>
       <c r="F38" t="s" s="32">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" t="s" s="33">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J38" s="34"/>
       <c r="K38" t="s" s="33">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L38" s="37"/>
       <c r="M38" t="s" s="33">
@@ -3525,36 +3515,36 @@
       <c r="N38" s="34"/>
       <c r="O38" s="34"/>
       <c r="P38" t="s" s="36">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s" s="19">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s" s="18">
+        <v>163</v>
+      </c>
+      <c r="D39" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="32">
         <v>164</v>
-      </c>
-      <c r="C39" t="s" s="18">
-        <v>165</v>
-      </c>
-      <c r="D39" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s" s="32">
-        <v>166</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" t="s" s="33">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" t="s" s="33">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L39" s="37"/>
       <c r="M39" t="s" s="33">
@@ -3563,7 +3553,7 @@
       <c r="N39" s="34"/>
       <c r="O39" s="34"/>
       <c r="P39" t="s" s="36">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -3573,17 +3563,17 @@
       <c r="D40" s="17"/>
       <c r="E40" s="28"/>
       <c r="F40" t="s" s="32">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" t="s" s="33">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
       <c r="L40" t="s" s="35">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M40" t="s" s="33">
         <v>19</v>
@@ -3591,45 +3581,45 @@
       <c r="N40" s="34"/>
       <c r="O40" s="34"/>
       <c r="P40" t="s" s="36">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s" s="19">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s" s="18">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F41" t="s" s="32">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s" s="33">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
       <c r="J41" t="s" s="33">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" t="s" s="35">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
       <c r="O41" s="34"/>
       <c r="P41" t="s" s="36">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -3639,19 +3629,19 @@
       <c r="D42" s="17"/>
       <c r="E42" s="28"/>
       <c r="F42" t="s" s="32">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G42" t="s" s="33">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H42" s="34"/>
       <c r="I42" t="s" s="33">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
       <c r="L42" t="s" s="35">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="33">
         <v>19</v>
@@ -3659,7 +3649,7 @@
       <c r="N42" s="34"/>
       <c r="O42" s="34"/>
       <c r="P42" t="s" s="36">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" ht="32.05" customHeight="1">
@@ -3669,19 +3659,19 @@
       <c r="D43" s="17"/>
       <c r="E43" s="28"/>
       <c r="F43" t="s" s="32">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s" s="33">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H43" s="34"/>
       <c r="I43" t="s" s="33">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J43" s="34"/>
       <c r="K43" s="34"/>
       <c r="L43" t="s" s="35">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="33">
         <v>19</v>
@@ -3689,7 +3679,7 @@
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
       <c r="P43" t="s" s="36">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" ht="32.05" customHeight="1">
@@ -3699,19 +3689,19 @@
       <c r="D44" s="17"/>
       <c r="E44" s="28"/>
       <c r="F44" t="s" s="32">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G44" t="s" s="33">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" t="s" s="33">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
       <c r="L44" t="s" s="35">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M44" t="s" s="33">
         <v>19</v>
@@ -3719,7 +3709,7 @@
       <c r="N44" s="34"/>
       <c r="O44" s="34"/>
       <c r="P44" t="s" s="36">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -3729,19 +3719,19 @@
       <c r="D45" s="17"/>
       <c r="E45" s="28"/>
       <c r="F45" t="s" s="32">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G45" t="s" s="33">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" t="s" s="33">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
       <c r="L45" t="s" s="35">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M45" t="s" s="33">
         <v>19</v>
@@ -3749,7 +3739,7 @@
       <c r="N45" s="34"/>
       <c r="O45" s="34"/>
       <c r="P45" t="s" s="36">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" ht="32.05" customHeight="1">
@@ -3759,19 +3749,19 @@
       <c r="D46" s="17"/>
       <c r="E46" s="28"/>
       <c r="F46" t="s" s="32">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G46" t="s" s="33">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" t="s" s="33">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
       <c r="L46" t="s" s="35">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="33">
         <v>19</v>
@@ -3779,7 +3769,7 @@
       <c r="N46" s="34"/>
       <c r="O46" s="34"/>
       <c r="P46" t="s" s="36">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" ht="32.05" customHeight="1">
@@ -3789,19 +3779,19 @@
       <c r="D47" s="17"/>
       <c r="E47" s="28"/>
       <c r="F47" t="s" s="32">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G47" t="s" s="33">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" t="s" s="33">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J47" s="34"/>
       <c r="K47" s="34"/>
       <c r="L47" t="s" s="35">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M47" t="s" s="33">
         <v>19</v>
@@ -3809,7 +3799,7 @@
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
       <c r="P47" t="s" s="36">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -3819,17 +3809,17 @@
       <c r="D48" s="17"/>
       <c r="E48" s="28"/>
       <c r="F48" t="s" s="21">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G48" t="s" s="22">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" t="s" s="24">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M48" t="s" s="22">
         <v>19</v>
@@ -3837,7 +3827,7 @@
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
       <c r="P48" t="s" s="25">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -3854,10 +3844,12 @@
       </c>
       <c r="H49" s="23"/>
       <c r="I49" t="s" s="22">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
+      <c r="K49" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L49" t="s" s="24">
         <v>22</v>
       </c>
@@ -3867,45 +3859,47 @@
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
       <c r="P49" t="s" s="25">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="16">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" t="s" s="18">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E50" t="s" s="20">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s" s="21">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s" s="22">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" t="s" s="22">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
+      <c r="K50" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L50" t="s" s="24">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M50" t="s" s="22">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" t="s" s="25">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -3915,19 +3909,19 @@
       <c r="D51" s="17"/>
       <c r="E51" s="28"/>
       <c r="F51" t="s" s="21">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G51" t="s" s="22">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H51" s="23"/>
       <c r="I51" t="s" s="22">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" t="s" s="24">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M51" t="s" s="22">
         <v>19</v>
@@ -3935,7 +3929,7 @@
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
       <c r="P51" t="s" s="25">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -3945,17 +3939,19 @@
       <c r="D52" s="17"/>
       <c r="E52" s="28"/>
       <c r="F52" t="s" s="21">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G52" t="s" s="22">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
+      <c r="K52" t="s" s="22">
+        <v>208</v>
+      </c>
       <c r="L52" t="s" s="24">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M52" t="s" s="22">
         <v>19</v>
@@ -3963,39 +3959,39 @@
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
       <c r="P52" t="s" s="25">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="16">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s" s="19">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s" s="18">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F53" t="s" s="21">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s" s="22">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" t="s" s="22">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" t="s" s="24">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M53" t="s" s="22">
         <v>19</v>
@@ -4003,39 +3999,39 @@
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
       <c r="P53" t="s" s="25">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="16">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s" s="19">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s" s="18">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s" s="19">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F54" t="s" s="21">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G54" t="s" s="22">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" t="s" s="22">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" t="s" s="24">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M54" t="s" s="22">
         <v>19</v>
@@ -4043,7 +4039,7 @@
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
       <c r="P54" t="s" s="25">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" ht="20.05" customHeight="1">
@@ -4053,17 +4049,17 @@
       <c r="D55" s="17"/>
       <c r="E55" s="28"/>
       <c r="F55" t="s" s="21">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G55" t="s" s="22">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" t="s" s="24">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M55" t="s" s="22">
         <v>19</v>
@@ -4071,39 +4067,39 @@
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
       <c r="P55" t="s" s="25">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" ht="32.05" customHeight="1">
       <c r="A56" t="s" s="38">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s" s="39">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s" s="40">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s" s="39">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s" s="41">
         <v>19</v>
       </c>
       <c r="F56" t="s" s="42">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s" s="43">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H56" s="44"/>
       <c r="I56" t="s" s="43">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="44"/>
       <c r="L56" t="s" s="45">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M56" t="s" s="43">
         <v>19</v>
@@ -4111,7 +4107,7 @@
       <c r="N56" s="44"/>
       <c r="O56" s="44"/>
       <c r="P56" t="s" s="46">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Master NIEM Document/Mapping_Spreadsheets/09 External Standards.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/09 External Standards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>Crash Driver Report</t>
   </si>
@@ -604,64 +604,55 @@
     <t>j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
+    <t>j:Charge</t>
+  </si>
+  <si>
+    <t>j:ChargeType</t>
+  </si>
+  <si>
+    <t>A formal allegation that a specific person has committed a specific offense.</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/j:Charge</t>
+  </si>
+  <si>
     <t>Charge</t>
   </si>
   <si>
     <t>A committed offense.</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>j:Charge</t>
-  </si>
-  <si>
-    <t>j:ChargeType</t>
-  </si>
-  <si>
-    <t>A formal allegation that a specific person has committed a specific offense.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation/j:Charge</t>
-  </si>
-  <si>
-    <t>j:JuvenileAsAdultIndicator</t>
+    <t>element</t>
+  </si>
+  <si>
+    <t>Charge Description</t>
+  </si>
+  <si>
+    <t>A description of a charge.</t>
+  </si>
+  <si>
+    <t>j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>A plain language description of a charge.</t>
+  </si>
+  <si>
+    <t>j:Charge/j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>Is Felony</t>
+  </si>
+  <si>
+    <t>Whether a charge is a felony.</t>
+  </si>
+  <si>
+    <t>j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>niem-xs:boolean</t>
-  </si>
-  <si>
-    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>Charge Description</t>
-  </si>
-  <si>
-    <t>A description of a charge.</t>
-  </si>
-  <si>
-    <t>j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>A plain language description of a charge.</t>
-  </si>
-  <si>
-    <t>j:Charge/j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>Is Felony</t>
-  </si>
-  <si>
-    <t>Whether a charge is a felony.</t>
-  </si>
-  <si>
-    <t>j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>True if a charge refers to a felony offense; false otherwise.</t>
@@ -2255,7 +2246,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P56"/>
+  <dimension ref="A2:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -3863,24 +3854,16 @@
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="16">
+      <c r="A50" s="26"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="28"/>
+      <c r="F50" t="s" s="21">
         <v>197</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" t="s" s="18">
+      <c r="G50" t="s" s="22">
         <v>198</v>
-      </c>
-      <c r="D50" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s" s="20">
-        <v>199</v>
-      </c>
-      <c r="F50" t="s" s="21">
-        <v>200</v>
-      </c>
-      <c r="G50" t="s" s="22">
-        <v>201</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" t="s" s="22">
@@ -3891,37 +3874,45 @@
         <v>82</v>
       </c>
       <c r="L50" t="s" s="24">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="22">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" t="s" s="25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" t="s" s="16">
+        <v>202</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s" s="18">
         <v>203</v>
       </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="28"/>
+      <c r="D51" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s" s="20">
+        <v>200</v>
+      </c>
       <c r="F51" t="s" s="21">
+        <v>197</v>
+      </c>
+      <c r="G51" t="s" s="22">
+        <v>198</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" t="s" s="22">
         <v>204</v>
       </c>
-      <c r="G51" t="s" s="22">
-        <v>205</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" t="s" s="22">
-        <v>193</v>
-      </c>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
       <c r="L51" t="s" s="24">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M51" t="s" s="22">
         <v>19</v>
@@ -3929,29 +3920,39 @@
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
       <c r="P51" t="s" s="25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" t="s" s="16">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s" s="19">
+        <v>205</v>
+      </c>
+      <c r="C52" t="s" s="18">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s" s="21">
         <v>207</v>
       </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="28"/>
-      <c r="F52" t="s" s="21">
-        <v>200</v>
-      </c>
       <c r="G52" t="s" s="22">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="I52" t="s" s="22">
+        <v>197</v>
+      </c>
       <c r="J52" s="23"/>
-      <c r="K52" t="s" s="22">
+      <c r="K52" s="23"/>
+      <c r="L52" t="s" s="24">
         <v>208</v>
-      </c>
-      <c r="L52" t="s" s="24">
-        <v>202</v>
       </c>
       <c r="M52" t="s" s="22">
         <v>19</v>
@@ -3959,39 +3960,39 @@
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
       <c r="P52" t="s" s="25">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="16">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s" s="19">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s" s="18">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s" s="19">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F53" t="s" s="21">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G53" t="s" s="22">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" t="s" s="22">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" t="s" s="24">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M53" t="s" s="22">
         <v>19</v>
@@ -3999,39 +4000,27 @@
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
       <c r="P53" t="s" s="25">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="16">
-        <v>197</v>
-      </c>
-      <c r="B54" t="s" s="19">
-        <v>214</v>
-      </c>
-      <c r="C54" t="s" s="18">
-        <v>215</v>
-      </c>
-      <c r="D54" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="E54" t="s" s="20">
-        <v>19</v>
-      </c>
+      <c r="A54" s="26"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="28"/>
       <c r="F54" t="s" s="21">
         <v>216</v>
       </c>
       <c r="G54" t="s" s="22">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" t="s" s="22">
-        <v>200</v>
-      </c>
+      <c r="I54" s="23"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" t="s" s="24">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="22">
         <v>19</v>
@@ -4039,75 +4028,47 @@
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
       <c r="P54" t="s" s="25">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="28"/>
-      <c r="F55" t="s" s="21">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" ht="32.05" customHeight="1">
+      <c r="A55" t="s" s="38">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s" s="39">
         <v>219</v>
       </c>
-      <c r="G55" t="s" s="22">
+      <c r="C55" t="s" s="40">
         <v>220</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" t="s" s="24">
+      <c r="D55" t="s" s="39">
+        <v>147</v>
+      </c>
+      <c r="E55" t="s" s="41">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s" s="42">
         <v>221</v>
       </c>
-      <c r="M55" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" t="s" s="25">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" ht="32.05" customHeight="1">
-      <c r="A56" t="s" s="38">
-        <v>197</v>
-      </c>
-      <c r="B56" t="s" s="39">
+      <c r="G55" t="s" s="43">
+        <v>213</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" t="s" s="43">
+        <v>216</v>
+      </c>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" t="s" s="45">
         <v>222</v>
       </c>
-      <c r="C56" t="s" s="40">
+      <c r="M55" t="s" s="43">
+        <v>19</v>
+      </c>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" t="s" s="46">
         <v>223</v>
-      </c>
-      <c r="D56" t="s" s="39">
-        <v>147</v>
-      </c>
-      <c r="E56" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s" s="42">
-        <v>224</v>
-      </c>
-      <c r="G56" t="s" s="43">
-        <v>205</v>
-      </c>
-      <c r="H56" s="44"/>
-      <c r="I56" t="s" s="43">
-        <v>219</v>
-      </c>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" t="s" s="45">
-        <v>225</v>
-      </c>
-      <c r="M56" t="s" s="43">
-        <v>19</v>
-      </c>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" t="s" s="46">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
